--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTILISATEURS\fch\Desktop\BTS - Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BE54B2-DC16-4FA9-8D20-75266535B891}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306CA06A-57D0-488B-8777-8D3B3259752C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="19575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -140,9 +140,6 @@
 </t>
   </si>
   <si>
-    <t>Migration des VM clientes vers un nouveau serveur</t>
-  </si>
-  <si>
     <t>Déploiement de postes clients en clientèle</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   <si>
     <t xml:space="preserve">Réalisation d'une infrastructure intégrant la VOIP avec PacketTracer
 </t>
+  </si>
+  <si>
+    <t>Migration d'une VM cliente sur un nouvel HyperViseur</t>
   </si>
 </sst>
 </file>
@@ -874,15 +874,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,24 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1272,8 +1272,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1286,56 +1286,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="38"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
@@ -1347,10 +1347,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1373,8 +1373,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="28" t="s">
         <v>9</v>
       </c>
@@ -1430,16 +1430,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
+      <c r="A7" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>24</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
@@ -1637,10 +1637,10 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>24</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>24</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>24</v>
@@ -1907,7 +1907,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>24</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -2005,16 +2005,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2056,7 +2056,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12" t="s">
@@ -2107,7 +2107,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>24</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>24</v>
@@ -2216,10 +2216,10 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>24</v>
@@ -2228,9 +2228,7 @@
         <v>24</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
         <v>24</v>
       </c>
@@ -2273,10 +2271,10 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
@@ -2324,10 +2322,10 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>24</v>
@@ -2377,10 +2375,10 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>24</v>
@@ -2430,10 +2428,10 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>24</v>
@@ -2480,16 +2478,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2531,7 +2529,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>24</v>
@@ -2581,10 +2579,10 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>24</v>
@@ -2637,7 +2635,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -2688,7 +2686,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="12" t="s">
@@ -2738,10 +2736,10 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="12" t="s">
@@ -2794,7 +2792,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="12" t="s">
@@ -2844,10 +2842,10 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="12" t="s">
@@ -2897,10 +2895,10 @@
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3039,17 +3037,17 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTILISATEURS\fch\Desktop\BTS - Local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306CA06A-57D0-488B-8777-8D3B3259752C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFE2A26-F9CD-D84C-BFEA-8F3094C46215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -136,10 +136,6 @@
     <t>Migration d'un serveur Coala (Sage Génération Experts)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en place des protocole OSPF et HSRP sur des routeurs CISCO
-</t>
-  </si>
-  <si>
     <t>Déploiement de postes clients en clientèle</t>
   </si>
   <si>
@@ -162,9 +158,6 @@
   </si>
   <si>
     <t>N° candidat :  02144579409</t>
-  </si>
-  <si>
-    <t>Script PowerShell pour récupérer des informations serveur</t>
   </si>
   <si>
     <t>Migration d''une boîte mail vers Exchange Online</t>
@@ -254,12 +247,6 @@
 04/01/2022</t>
   </si>
   <si>
-    <t>Veille informatique et autoformation sur différentes technologies</t>
-  </si>
-  <si>
-    <t>Documentation des procédures personnelles et d'entreprise</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en place du réplicat Hyper-V
 </t>
   </si>
@@ -296,6 +283,13 @@
   </si>
   <si>
     <t>Migration d'une VM cliente sur un nouvel HyperViseur</t>
+  </si>
+  <si>
+    <t>Automatisation de la récupération d'information serveur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place du routage dynamique avec le protocole OSPF
+</t>
   </si>
 </sst>
 </file>
@@ -767,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -787,9 +781,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -874,9 +865,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -895,38 +916,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1272,85 +1275,85 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="70.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.5" customWidth="1"/>
+    <col min="44" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="20" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="44" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1362,35 +1365,35 @@
       <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="28" t="s">
+    <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I6"/>
@@ -1429,17 +1432,17 @@
       <c r="AP6"/>
       <c r="AQ6"/>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1476,23 +1479,23 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="14"/>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="13"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1529,23 +1532,23 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="14"/>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="13"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1582,23 +1585,23 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="14"/>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="13"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1635,23 +1638,23 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="29" t="s">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I11"/>
@@ -1690,21 +1693,21 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="14"/>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="13"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1741,23 +1744,23 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="14"/>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1794,23 +1797,23 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="14"/>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="13"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1847,25 +1850,25 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="14"/>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="13"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1902,21 +1905,25 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="13"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1953,19 +1960,19 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="29" t="s">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="28" t="s">
         <v>24</v>
       </c>
       <c r="I17"/>
@@ -2004,17 +2011,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2051,21 +2058,21 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
+      <c r="B19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2102,25 +2109,25 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="14"/>
+      <c r="B20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="13"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2157,27 +2164,27 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="14"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="13"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2214,25 +2221,25 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="14"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="13"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2269,21 +2276,21 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="14"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2320,23 +2327,23 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="14"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="13"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2373,23 +2380,21 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="29" t="s">
-        <v>24</v>
-      </c>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="13"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2426,21 +2431,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="13"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2477,17 +2476,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A27" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="43"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2524,23 +2523,23 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2577,23 +2576,23 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="29"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="28"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2630,21 +2629,21 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="29"/>
+      <c r="B30" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="28"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2681,23 +2680,23 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="14"/>
+      <c r="B31" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="13"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2734,23 +2733,23 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="14"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="13"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2787,23 +2786,23 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="16"/>
+      <c r="B33" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="15"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2840,23 +2839,23 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="16"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="15"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2893,21 +2892,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="34" t="s">
-        <v>24</v>
-      </c>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="33"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2944,7 +2937,7 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -2989,65 +2982,65 @@
       <c r="AP36"/>
       <c r="AQ36"/>
     </row>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFE2A26-F9CD-D84C-BFEA-8F3094C46215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD29676-0755-DC45-994D-C2C0CC802A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Déploiement d'un serveur Coala (Sage Génération Experts)</t>
   </si>
   <si>
-    <t>Migration d'un serveur Coala (Sage Génération Experts)</t>
-  </si>
-  <si>
     <t>Déploiement de postes clients en clientèle</t>
   </si>
   <si>
@@ -242,11 +239,6 @@
 11/05/2021</t>
   </si>
   <si>
-    <t>03/01/2022
-au 
-04/01/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en place du réplicat Hyper-V
 </t>
   </si>
@@ -283,9 +275,6 @@
   </si>
   <si>
     <t>Migration d'une VM cliente sur un nouvel HyperViseur</t>
-  </si>
-  <si>
-    <t>Automatisation de la récupération d'information serveur</t>
   </si>
   <si>
     <t xml:space="preserve">Mise en place du routage dynamique avec le protocole OSPF
@@ -865,15 +854,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -892,44 +911,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1275,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1289,56 +1278,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="19" t="s">
         <v>8</v>
       </c>
@@ -1350,10 +1339,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1376,8 +1365,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
@@ -1433,16 +1422,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
+      <c r="A7" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1481,10 +1470,10 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>24</v>
@@ -1534,10 +1523,10 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1587,10 +1576,10 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
@@ -1640,10 +1629,10 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1695,10 +1684,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -1746,10 +1735,10 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>24</v>
@@ -1799,10 +1788,10 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>24</v>
@@ -1852,10 +1841,10 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>24</v>
@@ -1907,10 +1896,10 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>24</v>
@@ -1962,10 +1951,10 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2012,16 +2001,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2063,7 +2052,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="11" t="s">
@@ -2114,7 +2103,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>24</v>
@@ -2166,10 +2155,10 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>24</v>
@@ -2223,10 +2212,10 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>24</v>
@@ -2278,10 +2267,10 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -2329,10 +2318,10 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>24</v>
@@ -2382,18 +2371,18 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+        <v>55</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="13"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -2432,13 +2421,13 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="13"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2477,16 +2466,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="43"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="53"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2528,7 +2517,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>24</v>
@@ -2578,10 +2567,10 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>24</v>
@@ -2634,7 +2623,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -2685,7 +2674,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="11" t="s">
@@ -2735,10 +2724,10 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="11" t="s">
@@ -2787,21 +2776,13 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>48</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="D33" s="11"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="G33" s="11"/>
       <c r="H33" s="15"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -2840,21 +2821,13 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>56</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="D34" s="11"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="15"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -3030,17 +3003,17 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD29676-0755-DC45-994D-C2C0CC802A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65789474-8075-B544-AD2A-5AE4B21B203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10740" yWindow="500" windowWidth="26740" windowHeight="27360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -133,21 +133,11 @@
     <t>Déploiement d'un serveur Coala (Sage Génération Experts)</t>
   </si>
   <si>
-    <t>Déploiement de postes clients en clientèle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en place d'un site web portofolio avec GitHub et Jekyll
 </t>
   </si>
   <si>
     <t>Mise en place d'un hébergement client (Hyper-V/IpFire/OVH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en place des backups VM (UbuntuServer/AltaroBACKUP)
-</t>
-  </si>
-  <si>
-    <t>Identification d'un panne matérielle et résolution d'incident réseau</t>
   </si>
   <si>
     <t xml:space="preserve">Refonte du réseau de la M2L (routage inter-vlan CISCO)
@@ -239,10 +229,6 @@
 11/05/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en place du réplicat Hyper-V
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en place d'un serveur DHCP sous Windows Server
 </t>
   </si>
@@ -263,9 +249,6 @@
 10/05/2022</t>
   </si>
   <si>
-    <t>Installation de GLPI et du plugin Fusion-Inventory</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en place d'un serveur LAMP conteneurisé avec Docker
 </t>
   </si>
@@ -274,10 +257,30 @@
 </t>
   </si>
   <si>
-    <t>Migration d'une VM cliente sur un nouvel HyperViseur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en place du routage dynamique avec le protocole OSPF
+</t>
+  </si>
+  <si>
+    <t>Détection d'incidents sur le parc de VM hébergés</t>
+  </si>
+  <si>
+    <t>Migration d'une VM cliente sur un nouveau serveur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place d'une solution de redondance 
+</t>
+  </si>
+  <si>
+    <t>Identification d'un panne matérielle et résolution d'un incident réseau</t>
+  </si>
+  <si>
+    <t>Déploiement de GLPI et du plugin Fusion-Inventory</t>
+  </si>
+  <si>
+    <t>Déploiement de postes en clientèle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place d'une solution de sauvegarde distante
 </t>
   </si>
 </sst>
@@ -750,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -773,9 +776,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -789,12 +789,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,8 +1258,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1278,71 +1272,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="39"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="19" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1354,35 +1348,35 @@
       <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="27" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I6"/>
@@ -1422,16 +1416,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+      <c r="A7" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1470,21 +1464,21 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="12"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1523,21 +1517,21 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="12"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1576,21 +1570,21 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="12"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1629,21 +1623,21 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>24</v>
       </c>
       <c r="I11"/>
@@ -1684,19 +1678,19 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1735,21 +1729,21 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="12"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1787,22 +1781,22 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="13"/>
+      <c r="A14" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="12"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1840,24 +1834,24 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="13"/>
+      <c r="A15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="12"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1895,24 +1889,24 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="13"/>
+      <c r="A16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="12"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1950,18 +1944,18 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="28" t="s">
+      <c r="A17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="25" t="s">
         <v>24</v>
       </c>
       <c r="I17"/>
@@ -2001,16 +1995,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2051,17 +2045,17 @@
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="B19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2102,21 +2096,21 @@
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="13"/>
+      <c r="B20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="12"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2155,25 +2149,25 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="12"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2212,23 +2206,19 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="13"/>
+      <c r="G22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="12"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2267,19 +2257,21 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="12"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2317,22 +2309,20 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="13"/>
+      <c r="A24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="12"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2370,20 +2360,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="12"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2421,14 +2405,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="12"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2466,16 +2450,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="53"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="50"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2516,19 +2500,19 @@
       <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
+      <c r="B28" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2567,21 +2551,21 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="25"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2622,17 +2606,17 @@
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="28"/>
+      <c r="B30" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="25"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2673,19 +2657,19 @@
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="13"/>
+      <c r="B31" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="12"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2724,21 +2708,21 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="12"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2776,14 +2760,24 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="15"/>
+      <c r="A33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="12"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2821,14 +2815,24 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="15"/>
+      <c r="A34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="12"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2866,14 +2870,14 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="33"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="30"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65789474-8075-B544-AD2A-5AE4B21B203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D787341C-8143-E140-8B68-273681D0515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="500" windowWidth="26740" windowHeight="27360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$37</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -121,13 +122,7 @@
     <t>Helpdesk et gestion d'incidents avec GLPI</t>
   </si>
   <si>
-    <t>Monitoring et gestion à distance d'un parc informatique avec DATTO RMM</t>
-  </si>
-  <si>
     <t>Audit d'un système d'information et identifications des besoins du client</t>
-  </si>
-  <si>
-    <t>Aide à l'optimisation du SEO web de l'entreprise</t>
   </si>
   <si>
     <t>Déploiement d'un serveur Coala (Sage Génération Experts)</t>
@@ -152,9 +147,6 @@
   <si>
     <t xml:space="preserve">Réalisation en cours de formation
 </t>
-  </si>
-  <si>
-    <t>Mise en place d'un réseau WorkGroup, partages et autorisations</t>
   </si>
   <si>
     <t>15/01/2021
@@ -238,9 +230,6 @@
 29/02/2021</t>
   </si>
   <si>
-    <t>Automatisation de la création d'utilisateur dans l'AD avec PowerShell</t>
-  </si>
-  <si>
     <t>Déploiement  d'un serveur LDAP Active Directory</t>
   </si>
   <si>
@@ -261,27 +250,50 @@
 </t>
   </si>
   <si>
-    <t>Détection d'incidents sur le parc de VM hébergés</t>
-  </si>
-  <si>
     <t>Migration d'une VM cliente sur un nouveau serveur</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en place d'une solution de redondance 
+    <t>Identification d'un panne matérielle et résolution d'un incident réseau</t>
+  </si>
+  <si>
+    <t>Déploiement de GLPI et du plugin Fusion-Inventory</t>
+  </si>
+  <si>
+    <t>Déploiement de postes en clientèle</t>
+  </si>
+  <si>
+    <t>Gestion de projet : mise en place de l'infrastructure pour l'épreuve E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/01/2022
+au 03/03/2022
 </t>
   </si>
   <si>
-    <t>Identification d'un panne matérielle et résolution d'un incident réseau</t>
-  </si>
-  <si>
-    <t>Déploiement de GLPI et du plugin Fusion-Inventory</t>
-  </si>
-  <si>
-    <t>Déploiement de postes en clientèle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en place d'une solution de sauvegarde distante
+    <t>Mise en place de ma veille informatique et juridique</t>
+  </si>
+  <si>
+    <t>Participation à l'amélioration de la présence en ligne de l'entreprise</t>
+  </si>
+  <si>
+    <t>Planification d'une intervention sur site</t>
+  </si>
+  <si>
+    <t>Monitoring, inventaire et gestion à distance d'un parc informatique avec DATTO RMM</t>
+  </si>
+  <si>
+    <t>Automatisation de la création d'utilisateurs dans l'AD avec PowerShell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restauration de documents depuis les serveurs de sauvegarde de l'entreprise
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place du système de redondance pour les VM clientes
+</t>
+  </si>
+  <si>
+    <t>Détection d'incidents sur le parc de VM hébergés (prévention des risques)</t>
   </si>
 </sst>
 </file>
@@ -291,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -353,6 +365,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,7 +380,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -748,12 +766,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -860,6 +896,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,9 +954,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,10 +1304,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ82"/>
+  <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1272,56 +1320,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1333,10 +1381,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1359,8 +1407,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
@@ -1416,16 +1464,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="A7" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1464,17 +1512,15 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
         <v>24</v>
       </c>
@@ -1517,21 +1563,19 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1570,15 +1614,13 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="10" t="s">
@@ -1623,23 +1665,19 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>24</v>
-      </c>
+      <c r="H11" s="12"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1678,19 +1716,21 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1729,10 +1769,10 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>24</v>
@@ -1782,10 +1822,10 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>24</v>
@@ -1835,19 +1875,15 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1890,17 +1926,15 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="10" t="s">
@@ -1945,10 +1979,10 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1994,17 +2028,21 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="12"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2042,20 +2080,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="A19" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2092,24 +2126,20 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C20" s="11"/>
       <c r="D20" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="G20" s="11"/>
       <c r="H20" s="12"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -2149,10 +2179,10 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>45</v>
+        <v>65</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>24</v>
@@ -2160,10 +2190,8 @@
       <c r="D21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="10" t="s">
         <v>24</v>
       </c>
@@ -2206,15 +2234,19 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
         <v>24</v>
       </c>
@@ -2257,17 +2289,15 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="10" t="s">
         <v>24</v>
       </c>
@@ -2309,19 +2339,21 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="A24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="H24" s="12"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -2360,9 +2392,15 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -2405,13 +2443,17 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="A26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="12"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2449,17 +2491,15 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="50"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="12"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2497,22 +2537,16 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+      <c r="A28" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2549,23 +2583,23 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="G29" s="11"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="12"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2604,17 +2638,19 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="25"/>
       <c r="I30"/>
@@ -2655,21 +2691,19 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>44</v>
+        <v>63</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="12"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="25"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2708,10 +2742,10 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="10" t="s">
@@ -2761,19 +2795,17 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="10" t="s">
         <v>24</v>
       </c>
@@ -2816,10 +2848,10 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>24</v>
@@ -2869,15 +2901,25 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="30"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="12"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2914,15 +2956,15 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="30"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
@@ -2959,8 +3001,96 @@
       <c r="AP36"/>
       <c r="AQ36"/>
     </row>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+    </row>
+    <row r="38" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+    </row>
     <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3003,21 +3133,32 @@
     <row r="78" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="79" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="80" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="1:8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="1:8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="1:8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="1:8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A28:H28"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D787341C-8143-E140-8B68-273681D0515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D89917-E669-E845-A283-8415B9EC7890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -1306,8 +1306,8 @@
   </sheetPr>
   <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D89917-E669-E845-A283-8415B9EC7890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144B8641-D412-5444-94B2-21FAFC0E80C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$37</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -142,9 +141,6 @@
     <t>N° candidat :  02144579409</t>
   </si>
   <si>
-    <t>Migration d''une boîte mail vers Exchange Online</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réalisation en cours de formation
 </t>
   </si>
@@ -253,9 +249,6 @@
     <t>Migration d'une VM cliente sur un nouveau serveur</t>
   </si>
   <si>
-    <t>Identification d'un panne matérielle et résolution d'un incident réseau</t>
-  </si>
-  <si>
     <t>Déploiement de GLPI et du plugin Fusion-Inventory</t>
   </si>
   <si>
@@ -285,15 +278,21 @@
     <t>Automatisation de la création d'utilisateurs dans l'AD avec PowerShell</t>
   </si>
   <si>
-    <t xml:space="preserve">Restauration de documents depuis les serveurs de sauvegarde de l'entreprise
+    <t>Détection d'incidents sur le parc de VM hébergés (prévention des risques)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place d'une solution de sauvegarde des fichiers client dans le cloud NS2B
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en place du système de redondance pour les VM clientes
+    <t>Migration d'une boîte mail vers Exchange Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place de la réplication des serveurs de sauvegardes
 </t>
   </si>
   <si>
-    <t>Détection d'incidents sur le parc de VM hébergés (prévention des risques)</t>
+    <t>Remplacement et configuration de switchs CISCO niveau 2</t>
   </si>
 </sst>
 </file>
@@ -1306,8 +1305,8 @@
   </sheetPr>
   <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1465,7 +1464,7 @@
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1512,10 +1511,10 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
@@ -1563,10 +1562,10 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1614,10 +1613,10 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1665,10 +1664,10 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1719,7 +1718,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1772,7 +1771,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>24</v>
@@ -1822,10 +1821,10 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>24</v>
@@ -1875,10 +1874,10 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1926,10 +1925,10 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>24</v>
@@ -1979,10 +1978,10 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -2030,10 +2029,10 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="34"/>
@@ -2131,7 +2130,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="10" t="s">
@@ -2179,10 +2178,10 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>24</v>
@@ -2237,14 +2236,12 @@
         <v>29</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="19"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
@@ -2289,15 +2286,19 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
         <v>24</v>
       </c>
@@ -2340,10 +2341,10 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>24</v>
@@ -2396,7 +2397,7 @@
         <v>68</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>24</v>
@@ -2444,7 +2445,7 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
@@ -2588,7 +2589,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>24</v>
@@ -2638,10 +2639,10 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>24</v>
@@ -2691,10 +2692,10 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2745,7 +2746,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="10" t="s">
@@ -2795,10 +2796,10 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="10" t="s">
@@ -2848,10 +2849,10 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>24</v>
@@ -2902,24 +2903,6 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="12"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -3096,7 +3079,22 @@
     <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:43" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
     <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144B8641-D412-5444-94B2-21FAFC0E80C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B39B85-B2EE-0B40-BC32-76B63310446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -188,11 +188,6 @@
 29/11/2021</t>
   </si>
   <si>
-    <t>28/06/2020
-au 
-30/06/2021</t>
-  </si>
-  <si>
     <t>à chaque nouvel 
 hébergement</t>
   </si>
@@ -252,9 +247,6 @@
     <t>Déploiement de GLPI et du plugin Fusion-Inventory</t>
   </si>
   <si>
-    <t>Déploiement de postes en clientèle</t>
-  </si>
-  <si>
     <t>Gestion de projet : mise en place de l'infrastructure pour l'épreuve E5</t>
   </si>
   <si>
@@ -278,9 +270,6 @@
     <t>Automatisation de la création d'utilisateurs dans l'AD avec PowerShell</t>
   </si>
   <si>
-    <t>Détection d'incidents sur le parc de VM hébergés (prévention des risques)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en place d'une solution de sauvegarde des fichiers client dans le cloud NS2B
 </t>
   </si>
@@ -293,6 +282,9 @@
   </si>
   <si>
     <t>Remplacement et configuration de switchs CISCO niveau 2</t>
+  </si>
+  <si>
+    <t>Mise en place d'un service de scan vers le CLOUD NS2B</t>
   </si>
 </sst>
 </file>
@@ -379,7 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -480,36 +472,6 @@
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
@@ -783,12 +745,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -808,14 +783,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,143 +792,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1305,8 +1289,8 @@
   </sheetPr>
   <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1319,71 +1303,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="41"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="16" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1395,35 +1379,35 @@
       <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I6"/>
@@ -1463,16 +1447,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1511,19 +1495,19 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="10"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1562,17 +1546,17 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="22" t="s">
         <v>24</v>
       </c>
       <c r="I9"/>
@@ -1613,19 +1597,19 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1664,19 +1648,19 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="10"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1717,17 +1701,17 @@
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="B12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>24</v>
       </c>
       <c r="I12"/>
@@ -1770,19 +1754,19 @@
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="10"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1820,22 +1804,22 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="12"/>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="10"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1873,20 +1857,20 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="10"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1924,22 +1908,22 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="12"/>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="10"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1977,18 +1961,18 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="25" t="s">
+      <c r="B17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="22" t="s">
         <v>24</v>
       </c>
       <c r="I17"/>
@@ -2028,20 +2012,20 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="12"/>
+      <c r="A18" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="10"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2079,16 +2063,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2129,17 +2113,17 @@
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2178,23 +2162,23 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="12"/>
+      <c r="C21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="10"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2235,19 +2219,19 @@
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="12"/>
+      <c r="C22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="10"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2286,23 +2270,23 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="12"/>
+      <c r="C23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="10"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2341,21 +2325,21 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="10"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2393,20 +2377,20 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="32" t="s">
+      <c r="A25" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="12"/>
+      <c r="C25" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="10"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2444,18 +2428,18 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="10"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2493,14 +2477,14 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="10"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2538,16 +2522,16 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2588,19 +2572,19 @@
       <c r="A29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
+      <c r="B29" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2639,21 +2623,21 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="22"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2692,19 +2676,19 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="22"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2745,19 +2729,19 @@
       <c r="A32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="12"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="10"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2796,21 +2780,21 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="10"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2848,24 +2832,24 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="28" t="s">
+      <c r="A34" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="12"/>
+      <c r="C34" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="10"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2903,6 +2887,14 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="10"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2940,14 +2932,14 @@
       <c r="AQ35"/>
     </row>
     <row r="36" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="30"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="27"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
@@ -3079,21 +3071,15 @@
     <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:43" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="12"/>
+    <row r="44" spans="1:43" customFormat="1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
     </row>
     <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B39B85-B2EE-0B40-BC32-76B63310446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2025EEF-574A-E941-8ADB-E4AAE892010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33800" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -284,7 +284,7 @@
     <t>Remplacement et configuration de switchs CISCO niveau 2</t>
   </si>
   <si>
-    <t>Mise en place d'un service de scan vers le CLOUD NS2B</t>
+    <t>Mise en place d'un service de scan via le réseau</t>
   </si>
 </sst>
 </file>
@@ -867,6 +867,24 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,24 +944,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:AQ84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1303,56 +1303,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="38"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1364,10 +1364,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="59" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1390,8 +1390,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="21" t="s">
         <v>9</v>
       </c>
@@ -1447,16 +1447,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1967,14 +1967,18 @@
       <c r="B17" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="G17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="22"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -2063,16 +2067,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2522,16 +2526,16 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2637,7 +2641,9 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="22"/>
+      <c r="H30" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2932,13 +2938,13 @@
       <c r="AQ35"/>
     </row>
     <row r="36" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
       <c r="H36" s="27"/>
       <c r="I36"/>
       <c r="J36"/>
@@ -3073,13 +3079,13 @@
     <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:43" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="60"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2025EEF-574A-E941-8ADB-E4AAE892010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986C27AC-EA2A-0C40-AF7F-C32566AA86A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33800" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -145,21 +145,6 @@
 </t>
   </si>
   <si>
-    <t>15/01/2021
-au 
-22/01/2021</t>
-  </si>
-  <si>
-    <t>06/11/2021
-au 
-13/11/2021</t>
-  </si>
-  <si>
-    <t>12/02/2021
-au 
-19/02/2021</t>
-  </si>
-  <si>
     <t>26/02/2021
 au 
 12/03/2021</t>
@@ -216,11 +201,6 @@
 </t>
   </si>
   <si>
-    <t>29/01/2021
-au 
-29/02/2021</t>
-  </si>
-  <si>
     <t>Déploiement  d'un serveur LDAP Active Directory</t>
   </si>
   <si>
@@ -274,9 +254,6 @@
 </t>
   </si>
   <si>
-    <t>Migration d'une boîte mail vers Exchange Online</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en place de la réplication des serveurs de sauvegardes
 </t>
   </si>
@@ -285,6 +262,22 @@
   </si>
   <si>
     <t>Mise en place d'un service de scan via le réseau</t>
+  </si>
+  <si>
+    <t>Déploiement d'un serveur RDS avec une passerelle sécurisée</t>
+  </si>
+  <si>
+    <t>05/10/2021
+au 
+01/04/2022</t>
+  </si>
+  <si>
+    <t>22/01/2021
+au 
+31/01/2022</t>
+  </si>
+  <si>
+    <t>29/06/2021 au 21/07/2021</t>
   </si>
 </sst>
 </file>
@@ -763,7 +756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -831,9 +824,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -884,6 +874,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1289,8 +1285,8 @@
   </sheetPr>
   <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1303,56 +1299,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1364,10 +1360,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="60" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1390,8 +1386,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="21" t="s">
         <v>9</v>
       </c>
@@ -1447,16 +1443,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1495,10 +1491,10 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="40">
+        <v>44239</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -1546,10 +1542,10 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>35</v>
+        <v>54</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1597,10 +1593,10 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="B10" s="41">
+        <v>44211</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1648,10 +1644,10 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1699,10 +1695,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="B12" s="41">
+        <v>44225</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1754,8 +1750,8 @@
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>36</v>
+      <c r="B13" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>24</v>
@@ -1805,10 +1801,10 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>24</v>
@@ -1858,10 +1854,10 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1909,10 +1905,10 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>24</v>
@@ -1962,10 +1958,10 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>24</v>
@@ -2016,19 +2012,19 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="A18" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="10"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -2067,16 +2063,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2118,7 +2114,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="8" t="s">
@@ -2166,10 +2162,10 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>24</v>
@@ -2179,9 +2175,7 @@
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="10"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -2223,8 +2217,8 @@
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>41</v>
+      <c r="B22" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>24</v>
@@ -2274,10 +2268,10 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>24</v>
@@ -2329,10 +2323,10 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>24</v>
@@ -2382,18 +2376,18 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+        <v>60</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="10"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -2433,16 +2427,16 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="31"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="10"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2481,13 +2475,13 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="10"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -2526,16 +2520,16 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2576,8 +2570,8 @@
       <c r="A29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>43</v>
+      <c r="B29" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>24</v>
@@ -2627,10 +2621,10 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>24</v>
@@ -2682,10 +2676,10 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2735,8 +2729,8 @@
       <c r="A32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>40</v>
+      <c r="B32" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="8" t="s">
@@ -2786,10 +2780,10 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="8" t="s">
@@ -2839,20 +2833,20 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="10"/>
@@ -2893,13 +2887,13 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="10"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -2938,14 +2932,14 @@
       <c r="AQ35"/>
     </row>
     <row r="36" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="27"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="26"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
@@ -3079,13 +3073,13 @@
     <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:43" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="40"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986C27AC-EA2A-0C40-AF7F-C32566AA86A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C77F63-FB32-3144-896E-25408B97FDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1285,8 +1285,8 @@
   </sheetPr>
   <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C77F63-FB32-3144-896E-25408B97FDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023A2F26-4D30-2349-B9C6-3515019FF26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -254,10 +254,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en place de la réplication des serveurs de sauvegardes
-</t>
-  </si>
-  <si>
     <t>Remplacement et configuration de switchs CISCO niveau 2</t>
   </si>
   <si>
@@ -278,6 +274,10 @@
   </si>
   <si>
     <t>29/06/2021 au 21/07/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place de la réplication des machines virtuelles Hyper-V
+</t>
   </si>
 </sst>
 </file>
@@ -1285,8 +1285,8 @@
   </sheetPr>
   <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1545,7 +1545,7 @@
         <v>54</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1647,7 +1647,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>38</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>41</v>
@@ -2730,7 +2730,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="8" t="s">
@@ -2780,7 +2780,7 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>43</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>38</v>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023A2F26-4D30-2349-B9C6-3515019FF26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8176F3-14A0-2644-9130-92FF913A6B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,10 +250,6 @@
     <t>Automatisation de la création d'utilisateurs dans l'AD avec PowerShell</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en place d'une solution de sauvegarde des fichiers client dans le cloud NS2B
-</t>
-  </si>
-  <si>
     <t>Remplacement et configuration de switchs CISCO niveau 2</t>
   </si>
   <si>
@@ -277,6 +273,10 @@
   </si>
   <si>
     <t xml:space="preserve">Mise en place de la réplication des machines virtuelles Hyper-V
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place des sauvegardes VM et fichiers des clients hébergés
 </t>
   </si>
 </sst>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:AQ84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1545,7 +1545,7 @@
         <v>54</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1647,7 +1647,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>39</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>38</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>41</v>
@@ -2730,7 +2730,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="8" t="s">
@@ -2780,7 +2780,7 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>43</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>38</v>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8176F3-14A0-2644-9130-92FF913A6B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2F18C6-7809-7D4E-9C8D-D6598EF10CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8800" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -756,7 +756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -805,9 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1285,8 +1282,8 @@
   </sheetPr>
   <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1299,56 +1296,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="45"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1360,10 +1357,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1386,24 +1383,24 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I6"/>
@@ -1443,16 +1440,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1493,7 +1490,7 @@
       <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>44239</v>
       </c>
       <c r="C8" s="8"/>
@@ -1544,7 +1541,7 @@
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="8"/>
@@ -1552,7 +1549,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="I9"/>
@@ -1595,7 +1592,7 @@
       <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>44211</v>
       </c>
       <c r="C10" s="8"/>
@@ -1646,7 +1643,7 @@
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="8"/>
@@ -1697,7 +1694,7 @@
       <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="40">
         <v>44225</v>
       </c>
       <c r="C12" s="8"/>
@@ -1707,7 +1704,7 @@
       <c r="G12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="21" t="s">
         <v>24</v>
       </c>
       <c r="I12"/>
@@ -1750,7 +1747,7 @@
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1800,10 +1797,10 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1853,10 +1850,10 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="8"/>
@@ -1904,10 +1901,10 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1957,10 +1954,10 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1974,7 +1971,7 @@
       <c r="G17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="21"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -2012,19 +2009,19 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="10"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -2063,16 +2060,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2217,7 +2214,7 @@
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -2270,7 +2267,7 @@
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2325,7 +2322,7 @@
       <c r="A24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2375,19 +2372,19 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="H25" s="10"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -2426,17 +2423,19 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="B26" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="10"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2475,13 +2474,13 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="10"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -2520,16 +2519,16 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2570,7 +2569,7 @@
       <c r="A29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -2623,7 +2622,7 @@
       <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -2635,7 +2634,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="21" t="s">
         <v>24</v>
       </c>
       <c r="I30"/>
@@ -2678,7 +2677,7 @@
       <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="9"/>
@@ -2688,7 +2687,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="22"/>
+      <c r="H31" s="21"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2729,7 +2728,7 @@
       <c r="A32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="9"/>
@@ -2782,7 +2781,7 @@
       <c r="A33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="9"/>
@@ -2832,21 +2831,21 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29" t="s">
+      <c r="C34" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="10"/>
@@ -2887,13 +2886,13 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="10"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -2932,14 +2931,14 @@
       <c r="AQ35"/>
     </row>
     <row r="36" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="26"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="25"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
@@ -3073,13 +3072,13 @@
     <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:43" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3147,7 +3146,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2F18C6-7809-7D4E-9C8D-D6598EF10CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734A604-709B-DE44-94DA-0B6CDFE66734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -134,10 +134,6 @@
     <t>Mise en place d'un hébergement client (Hyper-V/IpFire/OVH)</t>
   </si>
   <si>
-    <t xml:space="preserve">Refonte du réseau de la M2L (routage inter-vlan CISCO)
-</t>
-  </si>
-  <si>
     <t>N° candidat :  02144579409</t>
   </si>
   <si>
@@ -209,10 +205,6 @@
 10/05/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en place d'un serveur LAMP conteneurisé avec Docker
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réalisation d'une infrastructure intégrant la VOIP avec PacketTracer
 </t>
   </si>
@@ -222,17 +214,6 @@
   </si>
   <si>
     <t>Migration d'une VM cliente sur un nouveau serveur</t>
-  </si>
-  <si>
-    <t>Déploiement de GLPI et du plugin Fusion-Inventory</t>
-  </si>
-  <si>
-    <t>Gestion de projet : mise en place de l'infrastructure pour l'épreuve E5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/01/2022
-au 03/03/2022
-</t>
   </si>
   <si>
     <t>Mise en place de ma veille informatique et juridique</t>
@@ -277,6 +258,20 @@
   </si>
   <si>
     <t xml:space="preserve">Mise en place des sauvegardes VM et fichiers des clients hébergés
+</t>
+  </si>
+  <si>
+    <t>Mise à niveau du parc informatique de la M2L</t>
+  </si>
+  <si>
+    <t>Déploiement de GLPI et remontée d'inventaire Fusion Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervision réseau avec Nagios
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refonte du réseau de la M2L (VLAN/VTP)
 </t>
   </si>
 </sst>
@@ -287,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -349,12 +344,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -364,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -751,12 +740,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF494529"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF494529"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF494529"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -851,9 +853,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -872,9 +871,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -937,6 +933,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1282,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1296,56 +1316,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="44"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
@@ -1357,10 +1377,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1383,8 +1403,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -1440,16 +1460,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+      <c r="A7" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1487,20 +1507,20 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="39">
+      <c r="A8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="64">
         <v>44239</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="10"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="65"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1538,20 +1558,22 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9" s="66">
+        <v>44161</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="10"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1589,20 +1611,22 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="40">
+      <c r="A10" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="60">
         <v>44211</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="10"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="63"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1644,7 +1668,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1653,7 +1677,9 @@
       <c r="G11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1692,9 +1718,9 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="40">
+        <v>43</v>
+      </c>
+      <c r="B12" s="38">
         <v>44225</v>
       </c>
       <c r="C12" s="8"/>
@@ -1704,9 +1730,7 @@
       <c r="G12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="H12" s="21"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1745,10 +1769,10 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>24</v>
@@ -1798,10 +1822,10 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>24</v>
@@ -1851,10 +1875,10 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1902,10 +1926,10 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>24</v>
@@ -1955,10 +1979,10 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>24</v>
@@ -1968,9 +1992,7 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="21"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -2009,20 +2031,20 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="10"/>
+      <c r="A18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2060,16 +2082,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2111,7 +2133,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="8" t="s">
@@ -2159,10 +2181,10 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>24</v>
@@ -2215,7 +2237,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>24</v>
@@ -2265,10 +2287,10 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>24</v>
@@ -2320,10 +2342,10 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>24</v>
@@ -2373,10 +2395,10 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>24</v>
@@ -2424,10 +2446,10 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
@@ -2519,16 +2541,16 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2570,7 +2592,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>24</v>
@@ -2620,10 +2642,10 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>24</v>
@@ -2675,10 +2697,10 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2729,7 +2751,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="8" t="s">
@@ -2779,10 +2801,10 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="8" t="s">
@@ -2832,10 +2854,10 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>24</v>
@@ -2931,13 +2953,13 @@
       <c r="AQ35"/>
     </row>
     <row r="36" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="25"/>
       <c r="I36"/>
       <c r="J36"/>
@@ -3072,13 +3094,13 @@
     <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:43" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
     </row>
     <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/assets/files/atelier/synthese_fabien_chevalier.xlsx
+++ b/assets/files/atelier/synthese_fabien_chevalier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/GitHub/bts/assets/files/atelier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A734A604-709B-DE44-94DA-0B6CDFE66734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F925FB8D-0407-8B45-8A4A-AC5D4035E30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="3140" windowWidth="51200" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -100,12 +100,6 @@
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
-    <t>Réalisations en milieu professionnel en cours de seconde année</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réalisations en milieu professionnel en cours de première année </t>
-  </si>
-  <si>
     <t>NOM et prénom : CHEVALIER Fabien</t>
   </si>
   <si>
@@ -240,11 +234,6 @@
     <t>Déploiement d'un serveur RDS avec une passerelle sécurisée</t>
   </si>
   <si>
-    <t>05/10/2021
-au 
-01/04/2022</t>
-  </si>
-  <si>
     <t>22/01/2021
 au 
 31/01/2022</t>
@@ -271,8 +260,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Refonte du réseau de la M2L (VLAN/VTP)
+    <t xml:space="preserve">Refonte du réseau de la M2L (routage intervlan CISCO)
 </t>
+  </si>
+  <si>
+    <t>15/10/2020
+au 
+01/05/2022</t>
+  </si>
+  <si>
+    <t>Réalisations en milieu professionnel en cours de première année chez NS2B</t>
+  </si>
+  <si>
+    <t>Réalisations en milieu professionnel en cours de seconde année chez NS2B</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -753,12 +753,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -874,6 +905,30 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,45 +974,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1302,8 +1334,8 @@
   </sheetPr>
   <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1316,71 +1348,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="42"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="A4" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="62" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1403,8 +1435,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -1460,16 +1492,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="A7" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1508,19 +1540,19 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="64">
-        <v>44239</v>
+        <v>42</v>
+      </c>
+      <c r="B8" s="44">
+        <v>44154</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="65"/>
+        <v>22</v>
+      </c>
+      <c r="H8" s="45"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1559,18 +1591,18 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="66">
+        <v>59</v>
+      </c>
+      <c r="B9" s="46">
         <v>44161</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="10"/>
@@ -1611,22 +1643,22 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="60">
+      <c r="A10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="40">
         <v>44211</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="63"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="43"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1665,20 +1697,20 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1718,7 +1750,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="38">
         <v>44225</v>
@@ -1728,7 +1760,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12"/>
@@ -1769,19 +1801,19 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13"/>
@@ -1822,19 +1854,19 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14"/>
@@ -1875,17 +1907,17 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15"/>
@@ -1926,26 +1958,26 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16"/>
+      <c r="M16" s="67"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
@@ -1979,16 +2011,16 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2032,10 +2064,10 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2043,7 +2075,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="8"/>
       <c r="H18" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -2082,16 +2114,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
+      <c r="A19" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2130,14 +2162,14 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2181,16 +2213,16 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -2234,19 +2266,19 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="16"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22"/>
@@ -2287,21 +2319,21 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23"/>
@@ -2342,19 +2374,19 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="16"/>
       <c r="G24" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24"/>
@@ -2395,13 +2427,13 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -2446,16 +2478,16 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="10"/>
@@ -2541,16 +2573,16 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
+      <c r="A28" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2589,18 +2621,18 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
@@ -2642,22 +2674,22 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
       <c r="H30" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -2697,15 +2729,15 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -2748,19 +2780,19 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32"/>
@@ -2801,19 +2833,19 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33"/>
@@ -2854,21 +2886,21 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34"/>
